--- a/work.xlsx
+++ b/work.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomek\Desktop\tensile_tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomek\Desktop\tensile-tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D48C2C-08AB-42A4-9728-CA80897C0D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D51085-7F7B-497A-8477-F6B11D8A6D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17640" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
-    <sheet name="SFU1204+Hardware" sheetId="3" r:id="rId2"/>
-    <sheet name="Load cell" sheetId="4" r:id="rId3"/>
-    <sheet name="M8 Clevis" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="NEMA17" sheetId="6" r:id="rId2"/>
+    <sheet name="SFU1204+Hardware" sheetId="3" r:id="rId3"/>
+    <sheet name="Load cell" sheetId="4" r:id="rId4"/>
+    <sheet name="M8 Clevis" sheetId="5" r:id="rId5"/>
+    <sheet name="Limit switches" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Torque</t>
   </si>
@@ -148,6 +150,21 @@
   </si>
   <si>
     <t>https://www.amazon.com/uxcell-Cylinder-Clevis-M8x1-25-Connector/dp/B0963F83WY</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Planetary Gearbox 5:1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/STEPPERONLINE-STEPPERONLINE-Planetary-Gearbox-Gear-Ratio-5-1-Backlash-30-arc-min-for-9-5mm-Short-Shaft-Length-Nema-17-Stepper-Motor/dp/B0BPH9SLGV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-KW12-3-Roller-Switch-Normally/dp/B07X142VGC</t>
+  </si>
+  <si>
+    <t>Limit switches</t>
   </si>
 </sst>
 </file>
@@ -156,7 +173,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -242,16 +259,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
@@ -274,6 +290,160 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="MG17-G5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9F841E-62B3-489F-913D-214FB8E0FDA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="28667" b="21833"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="9239250" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>305103</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D630159-CEFD-4F2D-828D-6FE4D9B18C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="4191000"/>
+          <a:ext cx="3353103" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381479</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2441EBD-A710-CCE9-F555-E7DB842E7FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3429479" cy="3753374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -454,7 +624,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -625,7 +795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -762,7 +932,117 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513003</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976C9783-DF6D-ADAC-250B-EA3CE8C9F373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4170603" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06E0F00-E3EA-6BD2-C3CB-0217216C8E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="7791450" cy="7791450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1130,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB63387-77C3-40B2-8FA1-237173BA8227}">
   <dimension ref="C4:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>E5*D5</f>
+        <f t="shared" ref="F5:F12" si="0">E5*D5</f>
         <v>52.99</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1176,13 +1456,13 @@
         <v>70</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f>E6*D6</f>
-        <v>140</v>
-      </c>
-      <c r="I6" s="9" t="s">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1194,13 +1474,13 @@
         <v>35.020000000000003</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <f>E7*D7</f>
-        <v>70.040000000000006</v>
-      </c>
-      <c r="I7" s="9" t="s">
+        <f t="shared" si="0"/>
+        <v>35.020000000000003</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1215,10 +1495,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>E8*D8</f>
+        <f t="shared" si="0"/>
         <v>42.98</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1233,10 +1513,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <f>E9*D9</f>
+        <f t="shared" si="0"/>
         <v>15.58</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1251,11 +1531,47 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>5.99</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
@@ -1264,7 +1580,7 @@
       </c>
       <c r="F22">
         <f>SUM(F5:F21)</f>
-        <v>331.58000000000004</v>
+        <v>256.55</v>
       </c>
     </row>
   </sheetData>
@@ -1275,16 +1591,31 @@
     <hyperlink ref="I8" r:id="rId4" xr:uid="{819BD2ED-5B06-477F-BBE6-BD433D39A4AC}"/>
     <hyperlink ref="I9" r:id="rId5" xr:uid="{F517D06F-A2F4-414A-ABEE-0A47F9DD708C}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{51355183-0D71-45DE-9D54-5CDFD1B29338}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{6E059D96-4510-469A-A5EC-B904918AA15B}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{61F1A763-C517-4BF8-9889-F49E520FCE17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCFB6BF-7DF0-4811-ACB8-80A3E494E2B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3D8DBE-B59E-45E0-ACC4-81B1459A9643}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4583978D-40B5-4D78-9753-2C887EB4B58C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1308,11 +1639,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB16C226-5F26-4087-BFA0-6070BFCFCDE0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1323,12 +1654,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A957DA-D15C-4636-962D-6FC55143B58A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C4F9-4A6E-49D3-89BB-464B13C557F2}">
   <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1687,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <f>4/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1353,7 +1699,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1364,7 +1710,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
@@ -1376,18 +1722,26 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <f>C5/60*C3*1000</f>
-        <v>66.666666666666686</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8">
+        <f>C5/60*C3*1000/C7</f>
+        <v>13.333333333333337</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1402,7 +1756,7 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1419,7 +1773,7 @@
       <c r="E11">
         <v>0.52</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.8</v>
       </c>
       <c r="G11" t="s">
@@ -1430,63 +1784,63 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <f>C11*2*PI()*$C$4/$C$3*$C$6</f>
-        <v>395.84067435231401</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:F12" si="0">D11*2*PI()*$C$4/$C$3*$C$6</f>
-        <v>1187.5220230569416</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2">
+        <f>C11*2*PI()*$C$4/$C$3*$C$6*$C$7</f>
+        <v>989.601685880785</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:F12" si="0">D11*2*PI()*$C$4/$C$3*$C$6*$C$7</f>
+        <v>2968.8050576423539</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1470.2653618800232</v>
-      </c>
-      <c r="F12" s="7">
+        <v>3675.663404700058</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>2261.9467105846511</v>
+        <v>5654.8667764616275</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f>C12/9.81</f>
-        <v>40.35073133051111</v>
-      </c>
-      <c r="D13" s="3">
+        <v>100.87682832627777</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" ref="D13:F13" si="1">D12/9.81</f>
-        <v>121.05219399153329</v>
-      </c>
-      <c r="E13" s="3">
+        <v>302.63048497883318</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>149.87414494189838</v>
-      </c>
-      <c r="F13" s="7">
+        <v>374.68536235474596</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>230.5756076029206</v>
+        <v>576.43901900730145</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f>C13*2.205</f>
-        <v>88.973362583777003</v>
-      </c>
-      <c r="D14" s="3">
+        <v>222.43340645944249</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" ref="D14:F14" si="2">D13*2.205</f>
-        <v>266.92008775133093</v>
-      </c>
-      <c r="E14" s="3">
+        <v>667.30021937832714</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>330.47248959688596</v>
-      </c>
-      <c r="F14" s="8">
+        <v>826.18122399221488</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>508.41921476443991</v>
+        <v>1271.0480369110996</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1496,7 +1850,7 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
     </row>

--- a/work.xlsx
+++ b/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomek\Desktop\tensile-tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D51085-7F7B-497A-8477-F6B11D8A6D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A27DD8-78BF-4C1D-8DCA-94BBC5C6259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17640" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>Torque</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Nm</t>
   </si>
@@ -71,9 +68,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Max RPM</t>
-  </si>
-  <si>
     <t>rpm</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>lb</t>
   </si>
   <si>
-    <t>N Steppers</t>
-  </si>
-  <si>
     <t>Limit holding force</t>
   </si>
   <si>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t>Limit switches</t>
+  </si>
+  <si>
+    <t>Motor Torque</t>
+  </si>
+  <si>
+    <t>Geared Torque</t>
+  </si>
+  <si>
+    <t>Max motor RPM</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB63387-77C3-40B2-8FA1-237173BA8227}">
   <dimension ref="C4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1421,18 +1421,18 @@
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>52.99</v>
@@ -1445,12 +1445,12 @@
         <v>52.99</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -1463,12 +1463,12 @@
         <v>70</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>35.020000000000003</v>
@@ -1481,12 +1481,12 @@
         <v>35.020000000000003</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>21.49</v>
@@ -1499,12 +1499,12 @@
         <v>42.98</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>7.79</v>
@@ -1517,12 +1517,12 @@
         <v>15.58</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>9.99</v>
@@ -1535,12 +1535,12 @@
         <v>9.99</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -1553,12 +1553,12 @@
         <v>24</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>5.99</v>
@@ -1571,12 +1571,12 @@
         <v>5.99</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <f>SUM(F5:F21)</f>
@@ -1673,9 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C4F9-4A6E-49D3-89BB-464B13C557F2}">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1685,173 +1683,189 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f>4/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>0.9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <f>C5/60*C3*1000/C7</f>
-        <v>13.333333333333337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <f>C5/60*C3*1000/C6</f>
+        <v>3.8610038610038613</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.42</v>
+      </c>
+      <c r="E10">
+        <v>0.52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <f>C10*$C$6</f>
+        <v>0.72520000000000007</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:F11" si="0">D10*$C$6</f>
+        <v>2.1755999999999998</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.6936</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="G11" t="s">
         <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D11">
-        <v>0.42</v>
-      </c>
-      <c r="E11">
-        <v>0.52</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <f>C11*2*PI()*$C$4/$C$3*$C$6*$C$7</f>
-        <v>989.601685880785</v>
+        <f>C11*2*PI()*$C$4/$C$3</f>
+        <v>1025.2273465724932</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:F12" si="0">D11*2*PI()*$C$4/$C$3*$C$6*$C$7</f>
-        <v>2968.8050576423539</v>
+        <f t="shared" ref="D12:F12" si="1">D11*2*PI()*$C$4/$C$3</f>
+        <v>3075.6820397174793</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>3675.663404700058</v>
+        <f t="shared" si="1"/>
+        <v>3807.9872872692595</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>5654.8667764616275</v>
+        <f t="shared" si="1"/>
+        <v>5858.4419804142462</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f>C12/9.81</f>
-        <v>100.87682832627777</v>
+        <v>104.50839414602376</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:F13" si="1">D12/9.81</f>
-        <v>302.63048497883318</v>
+        <f t="shared" ref="D13:F13" si="2">D12/9.81</f>
+        <v>313.52518243807128</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>374.68536235474596</v>
+        <f t="shared" si="2"/>
+        <v>388.17403539951675</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>576.43901900730145</v>
+        <f t="shared" si="2"/>
+        <v>597.19082369156433</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <f>C13*2.205</f>
-        <v>222.43340645944249</v>
+        <v>230.44100909198241</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:F14" si="2">D13*2.205</f>
-        <v>667.30021937832714</v>
+        <f t="shared" ref="D14:F14" si="3">D13*2.205</f>
+        <v>691.3230272759472</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
-        <v>826.18122399221488</v>
+        <f t="shared" si="3"/>
+        <v>855.92374805593442</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="2"/>
-        <v>1271.0480369110996</v>
+        <f t="shared" si="3"/>
+        <v>1316.8057662398994</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomek\Desktop\tensile-tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A27DD8-78BF-4C1D-8DCA-94BBC5C6259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE6789-FDD1-4015-8787-451143000F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -436,6 +437,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="vertical plotter -wiring the tb6600 - Programming - Arduino Forum">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FF9138-F8CD-10A9-0B07-11B769B54CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="5981700" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1411,7 +1473,7 @@
   <dimension ref="C4:I22"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCFB6BF-7DF0-4811-ACB8-80A3E494E2B2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1671,9 +1735,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C4F9-4A6E-49D3-89BB-464B13C557F2}">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1868,6 +1934,9 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{A6893846-0B4E-4400-AA29-2CFAF26E7B5B}"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomek\Desktop\tensile-tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE6789-FDD1-4015-8787-451143000F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69748A16-A5B5-47EF-A921-8C0C8F7A2D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{81EA39CF-4060-4AAC-868F-B95EAB252377}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -42,32 +42,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Nm</t>
   </si>
   <si>
-    <t>Case 1</t>
-  </si>
-  <si>
-    <t>Case 2</t>
-  </si>
-  <si>
-    <t>Case 3</t>
-  </si>
-  <si>
-    <t>Case 4</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>rpm</t>
   </si>
   <si>
@@ -158,13 +140,55 @@
     <t>Limit switches</t>
   </si>
   <si>
-    <t>Motor Torque</t>
-  </si>
-  <si>
     <t>Geared Torque</t>
   </si>
   <si>
     <t>Max motor RPM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B00QEUFRXK?psc=1&amp;smid=AWQBCGWISS7BL</t>
+  </si>
+  <si>
+    <t>Lead pitch</t>
+  </si>
+  <si>
+    <t>Stepper efficiency</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>m^4</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>fix-fix</t>
+  </si>
+  <si>
+    <t>free-free</t>
+  </si>
+  <si>
+    <t>Pcr</t>
+  </si>
+  <si>
+    <t>Buckling load check</t>
+  </si>
+  <si>
+    <t>Screw, Stepper and Gearbox sizing</t>
   </si>
 </sst>
 </file>
@@ -175,7 +199,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +222,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,49 +239,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -259,17 +254,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1108,23 +1102,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>465696</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>167377</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536338B3-B72A-430F-A8D8-06BEDAECF115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC97C68-7B79-C8CF-F847-FAFF3DFFDD84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1134,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="428625"/>
+          <a:off x="6867524" y="266699"/>
+          <a:ext cx="8343901" cy="6503833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>465696</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536338B3-B72A-430F-A8D8-06BEDAECF115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="2171700"/>
           <a:ext cx="5771121" cy="2224777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1473,7 +1511,7 @@
   <dimension ref="C4:I22"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,18 +1521,18 @@
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>52.99</v>
@@ -1506,13 +1544,13 @@
         <f t="shared" ref="F5:F12" si="0">E5*D5</f>
         <v>52.99</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>24</v>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -1524,13 +1562,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>14</v>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>35.020000000000003</v>
@@ -1542,13 +1580,13 @@
         <f t="shared" si="0"/>
         <v>35.020000000000003</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>21.49</v>
@@ -1560,13 +1598,13 @@
         <f t="shared" si="0"/>
         <v>42.98</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>27</v>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>7.79</v>
@@ -1578,13 +1616,13 @@
         <f t="shared" si="0"/>
         <v>15.58</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>28</v>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>9.99</v>
@@ -1596,13 +1634,13 @@
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -1614,13 +1652,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>35</v>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>5.99</v>
@@ -1632,13 +1670,13 @@
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>36</v>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <f>SUM(F5:F21)</f>
@@ -1664,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCFB6BF-7DF0-4811-ACB8-80A3E494E2B2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -1735,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7C4F9-4A6E-49D3-89BB-464B13C557F2}">
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,199 +1785,206 @@
     <col min="3" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
         <f>4/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <f>C5/60*C3*1000/C6</f>
-        <v>3.8610038610038613</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>C6/60*C4*1000/C7</f>
+        <v>1.7370158068438426</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C12*2*PI()*$C$5/$C$4</f>
+        <v>3817.0350741115985</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f>C13/9.81</f>
+        <v>389.09633782992847</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f>C14*2.205</f>
+        <v>857.95742491499232</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6">
+        <v>200000000000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+      <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <f>PI()/4*(C26/2)^4</f>
+        <v>2.0106192982974676E-10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7">
+        <f>PI()^2*$C$24*$C$27/(C31*$C$25)^2</f>
+        <v>17639.126289237229</v>
+      </c>
+      <c r="D32" s="7">
+        <f>PI()^2*$C$24*$C$27/(D31*$C$25)^2</f>
+        <v>4409.7815723093072</v>
+      </c>
+      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.42</v>
-      </c>
-      <c r="E10">
-        <v>0.52</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <f>C10*$C$6</f>
-        <v>0.72520000000000007</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:F11" si="0">D10*$C$6</f>
-        <v>2.1755999999999998</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.6936</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>4.1440000000000001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <f>C11*2*PI()*$C$4/$C$3</f>
-        <v>1025.2273465724932</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:F12" si="1">D11*2*PI()*$C$4/$C$3</f>
-        <v>3075.6820397174793</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>3807.9872872692595</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>5858.4419804142462</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
-        <f>C12/9.81</f>
-        <v>104.50839414602376</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:F13" si="2">D12/9.81</f>
-        <v>313.52518243807128</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>388.17403539951675</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>597.19082369156433</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <f>C13*2.205</f>
-        <v>230.44100909198241</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:F14" si="3">D13*2.205</f>
-        <v>691.3230272759472</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>855.92374805593442</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="3"/>
-        <v>1316.8057662398994</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{A6893846-0B4E-4400-AA29-2CFAF26E7B5B}"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{432CF470-F77C-49F2-A4B0-37D1C2EDB353}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
